--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2528040.589119864</v>
+        <v>2632220.223570935</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9026303.74782289</v>
+        <v>9026303.747822888</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>205.8951716468742</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>83.41943806107248</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.999469165708</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>163.0249101386754</v>
       </c>
       <c r="V4" t="n">
-        <v>128.9963598623882</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>41.41379075544808</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>77.9773651578016</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>12.27603560330601</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>168.558356520255</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>300.4367868126725</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>16.32241046606893</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>188.177438743582</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>99.92721361027489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>73.74785292486236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>103.8146543619971</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>1.255571502167759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>42.20606459030861</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>130.2301075198435</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>102.711162814446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695712</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>179.7186804608953</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>100.5140508960355</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>19.17715139986268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>243.4759147696085</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>71.22475183605025</v>
+        <v>159.4257716218678</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>108.9065924712593</v>
+        <v>36.74735985927992</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>109.5557012899563</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>179.0601483711169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,10 +3325,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>80.08971311158807</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>75.00788511617814</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>214.7441689014848</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.3262991707172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>94.05951414665343</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>19.51567534720909</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.057283176785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2753.809755554673</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2401.041100284559</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
         <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720652</v>
+        <v>444.6183067425364</v>
       </c>
       <c r="V4" t="n">
-        <v>287.3046955757135</v>
+        <v>444.6183067425364</v>
       </c>
       <c r="W4" t="n">
-        <v>287.3046955757135</v>
+        <v>444.6183067425364</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116518</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176106</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>958.147330569356</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>572.3590779711117</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>565.4135772219082</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>150.3411270669047</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.97538618064</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="V7" t="n">
-        <v>384.6861761966524</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W7" t="n">
-        <v>384.6861761966524</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X7" t="n">
-        <v>214.4252100145765</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>535.9822032813818</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>124.9962984917742</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>730.8087848650717</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>730.8087848650717</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>730.8087848650717</v>
       </c>
       <c r="W10" t="n">
-        <v>530.8475595395104</v>
+        <v>441.3916148281111</v>
       </c>
       <c r="X10" t="n">
-        <v>530.8475595395104</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,16 +5041,16 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2305.424599100479</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2085.82313412342</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U13" t="n">
-        <v>1796.747907467618</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.063419261731</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W13" t="n">
-        <v>1252.64624922477</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.656698326753</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.8641191832228</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5257,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492579</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D16" t="n">
-        <v>633.992644467967</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E16" t="n">
-        <v>486.0795508855739</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>136.4490515230311</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.1035305473703</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1673476194634</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>596.0507082071276</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>596.0507082071276</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>449.1607607092172</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2276.168730525142</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2056.567265548083</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,25 +5767,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
@@ -5838,16 +5840,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W22" t="n">
-        <v>1332.172021309389</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3046.798896214207</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>2877.8627132863</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>2727.746073873964</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>2727.746073873964</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2580.856126376054</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328841</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>3966.646661122954</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.229491085994</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.239940187977</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.447361044447</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,13 +6214,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,25 +6232,25 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492579</v>
@@ -6257,10 +6259,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1905.516886736721</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.832398530834</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
         <v>2129.438138565707</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>620.8230468926974</v>
+        <v>3161.37108304703</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>2992.434900119124</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>2992.434900119124</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>2844.52180653673</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>2697.63185903882</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>2530.4357597537</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y34" t="n">
-        <v>802.4715117229372</v>
+        <v>3343.01954787727</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,25 +6955,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.516248701936</v>
+        <v>1092.345997432833</v>
       </c>
       <c r="C37" t="n">
-        <v>2809.580065774029</v>
+        <v>923.4098145049257</v>
       </c>
       <c r="D37" t="n">
-        <v>2809.580065774029</v>
+        <v>773.2931750925899</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>625.3800815101966</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>478.4901340122861</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>311.294034727166</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>169.5822035693639</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1494.787041406603</v>
       </c>
       <c r="Y37" t="n">
-        <v>3160.164713532175</v>
+        <v>1273.994462263073</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7159,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3025.687952571559</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812248</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775287</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>3343.01954787727</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y40" t="n">
-        <v>3207.336417401798</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590559</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L42" t="n">
-        <v>2728.681520806318</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>3326.06000843287</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>3953.657971987477</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>4505.567702226764</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4505.567702226764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>783.5579673960132</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>614.6217844681063</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.9885622678</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.999011369783</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y43" t="n">
-        <v>965.2064322262529</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6605733532801</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253733</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3090381835199</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>107.2784330767822</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>113.5907959652912</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>144.1654765207635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>98.08864825591527</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.29403077242532</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>78.31512318719862</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>106.4657939283489</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>146.3469868924062</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>43.04708356698248</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>214.9597225531939</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>39.70888054695304</v>
+        <v>111.8681131589324</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>30.73901155626761</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.52450498097787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>66.3442495349811</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.257951202387503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>10.96548648755231</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.25835418137763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>85.77246603528387</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>267.0073229893819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.52737017530976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.9809007893</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.980900789</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914268</v>
@@ -26320,22 +26322,22 @@
         <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
         <v>645717.279752005</v>
@@ -26344,16 +26346,16 @@
         <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.637716850846599e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186732</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="I4" t="n">
-        <v>14826.6960418673</v>
-      </c>
       <c r="J4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186737</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26531,19 +26533,19 @@
         <v>204355.5920788755</v>
       </c>
       <c r="F6" t="n">
+        <v>529768.0538862307</v>
+      </c>
+      <c r="G6" t="n">
+        <v>529768.0538862305</v>
+      </c>
+      <c r="H6" t="n">
         <v>529768.0538862306</v>
       </c>
-      <c r="G6" t="n">
-        <v>529768.0538862308</v>
-      </c>
-      <c r="H6" t="n">
-        <v>529768.0538862305</v>
-      </c>
       <c r="I6" t="n">
-        <v>529768.0538862305</v>
+        <v>529768.0538862306</v>
       </c>
       <c r="J6" t="n">
-        <v>312236.8514889532</v>
+        <v>312236.8514889531</v>
       </c>
       <c r="K6" t="n">
         <v>529768.0538862306</v>
@@ -26552,16 +26554,16 @@
         <v>529768.0538862308</v>
       </c>
       <c r="M6" t="n">
-        <v>444713.0259507188</v>
+        <v>444713.0259507189</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862307</v>
+        <v>529768.0538862305</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862303</v>
+        <v>529768.0538862306</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862308</v>
+        <v>529768.0538862301</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26722,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.079714606355825e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.579122514774403e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.079714606355825e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>121.8570868232607</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.8185005949811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>123.1869280669374</v>
       </c>
       <c r="V4" t="n">
-        <v>123.1412834614398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>253.1939736318724</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>308.260573498252</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>177.4929897281359</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>57.15129886878211</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.83610495833506</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>394.5993151873845</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>31.37151053258719</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>186.5957847263161</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178164</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>188.4731159523453</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>726.7533607666135</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>667.8124403339916</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O30" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>211.0222436375116</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>460.9249101897659</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.1185924414061</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344831</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>479.7503686470592</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>45.87687150790087</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36206,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>584.6193268445951</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>525.6784064119734</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O30" t="n">
-        <v>481.5356082478341</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3705304098917</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>187.1368183553845</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632220.223570935</v>
+        <v>2628207.613556941</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>155.4595895869374</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>205.8951716468742</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>79.91271028230334</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>163.0249101386754</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>94.00928821139618</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.9773651578016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>94.57983363107959</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>12.27603560330601</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>108.9520512661119</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>16.32241046606893</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>188.177438743582</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444138</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>73.98898794534691</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>103.8146543619971</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444106</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42.20606459030861</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410123</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
-        <v>102.711162814446</v>
+        <v>42.53134576113629</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695712</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>179.7186804608953</v>
+        <v>121.8674042714179</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>243.4759147696085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576164</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>159.4257716218678</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>36.74735985927992</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5557012899563</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>75.00788511617814</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>214.7441689014848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.05951414665343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051593</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>94.64226186542889</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.836169983545</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.836169983545</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="D2" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2753.809755554673</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2401.041100284559</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.575342023478</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.436010047667</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445191</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>462.8479560159216</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>444.6183067425364</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V4" t="n">
-        <v>444.6183067425364</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W4" t="n">
-        <v>444.6183067425364</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X4" t="n">
-        <v>216.6287558445191</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.6287558445191</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
         <v>1590.416669135309</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>1977.016509199431</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
@@ -4646,52 +4646,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>908.4869698552495</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>908.4869698552495</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>908.4869698552495</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>908.4869698552495</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>619.069799818289</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>619.069799818289</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.2772206747588</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796261</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796261</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796261</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E8" t="n">
-        <v>535.9822032813818</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F8" t="n">
-        <v>124.9962984917742</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>730.8087848650717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>730.8087848650717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>730.8087848650717</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>441.3916148281111</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>213.4020639300938</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687906</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>904.461687384549</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>801.6918836311912</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>632.7557007032843</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>482.6390612909486</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235157</v>
       </c>
       <c r="T13" t="n">
-        <v>2092.199258253227</v>
+        <v>2044.506784258098</v>
       </c>
       <c r="U13" t="n">
-        <v>1803.124031597425</v>
+        <v>1755.431557602296</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.439543391538</v>
+        <v>1500.747069396409</v>
       </c>
       <c r="W13" t="n">
-        <v>1259.022373354577</v>
+        <v>1211.329899359448</v>
       </c>
       <c r="X13" t="n">
-        <v>1031.03282245656</v>
+        <v>983.3403484614309</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>983.3403484614309</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362654</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.5010142286973</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>748.5648313007904</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>598.4481918884546</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E16" t="n">
-        <v>450.5350983060615</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F16" t="n">
-        <v>303.6451508081511</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G16" t="n">
-        <v>136.4490515230311</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.149479058937</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2276.168730525142</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2056.567265548083</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1767.492038892281</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.492038892281</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5773,19 +5773,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1795.927059842937</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V22" t="n">
-        <v>1541.24257163705</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W22" t="n">
-        <v>1251.82540160009</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1975.033022579363</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1883.470651306724</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1628.786163100837</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.368993063877</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.379442165859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3161.37108304703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2992.434900119124</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2992.434900119124</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2844.52180653673</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2697.63185903882</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2530.4357597537</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3343.01954787727</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.345997432833</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>923.4098145049257</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>773.2931750925899</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>625.3800815101966</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>478.4901340122861</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>311.294034727166</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>169.5822035693639</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.77659230462</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.787041406603</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.994462263073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.055381897054</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.964939354869</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>72.44497470122226</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>113.5907959652912</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>98.08864825591527</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.45968844823184</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>78.31512318719862</v>
+        <v>138.4949402405083</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>106.4657939283489</v>
+        <v>164.3170701178263</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.8681131589324</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>30.73901155626761</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.257951202387503</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>10.96548648755231</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.77246603528387</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>191.8807364711621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007889</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007893</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780817.9809007893</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914268</v>
@@ -26322,40 +26322,40 @@
         <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>8.637716850846599e-11</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>6.063298011819522e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.6960418675</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186745</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26450,10 +26450,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186732</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016115</v>
+        <v>-873442.0145016116</v>
       </c>
       <c r="C6" t="n">
         <v>455302.731225981</v>
@@ -26530,40 +26530,40 @@
         <v>455302.731225981</v>
       </c>
       <c r="E6" t="n">
-        <v>204355.5920788755</v>
+        <v>204008.2128245186</v>
       </c>
       <c r="F6" t="n">
-        <v>529768.0538862307</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="G6" t="n">
-        <v>529768.0538862305</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="H6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.674631873</v>
       </c>
       <c r="I6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="J6" t="n">
-        <v>312236.8514889531</v>
+        <v>311889.4722345958</v>
       </c>
       <c r="K6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.6746318735</v>
       </c>
       <c r="L6" t="n">
-        <v>529768.0538862308</v>
+        <v>529420.6746318735</v>
       </c>
       <c r="M6" t="n">
-        <v>444713.0259507189</v>
+        <v>444365.6466963617</v>
       </c>
       <c r="N6" t="n">
-        <v>529768.0538862305</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="O6" t="n">
-        <v>529768.0538862306</v>
+        <v>529420.6746318734</v>
       </c>
       <c r="P6" t="n">
-        <v>529768.0538862301</v>
+        <v>529420.6746318734</v>
       </c>
     </row>
   </sheetData>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26746,13 +26746,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.079714606355825e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.579122514774403e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.079714606355825e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>199.2234520337455</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>121.8570868232607</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>68.70276273590902</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>123.1869280669374</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>275.7218124670728</v>
       </c>
       <c r="Y5" t="n">
-        <v>308.260573498252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>177.4929897281359</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>272.9783188061499</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>394.5993151873845</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>31.37151053258719</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-6.787104211980477e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31621,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,34 +31843,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226608</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483018</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899005</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2628207.613556941</v>
+        <v>2629968.143859726</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>112.8452622460474</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>155.4595895869374</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.91271028230334</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>167.5726785074851</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>358.7131777195873</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.00928821139618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107959</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7837154089691292</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661119</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>67.3751214931864</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>134.7466378365501</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>73.98898794534691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>180.9172429496413</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444106</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>239.7247859410123</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>42.53134576113629</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569541</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>121.8674042714179</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>216.8180354051593</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.969111598457</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1774.969111598457</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
         <v>2866.097597267229</v>
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>631.7841389438285</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C4" t="n">
-        <v>462.8479560159216</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4521,19 +4521,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>751.6216739924423</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>751.6216739924423</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438285</v>
+        <v>462.2045039554818</v>
       </c>
       <c r="X4" t="n">
-        <v>631.7841389438285</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.7841389438285</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1590.807527238423</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>863.5793116912607</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>477.7910590930165</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>470.845558343813</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.016509199431</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>217.4203875707506</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>67.30374815841486</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4761,16 +4761,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>217.4203875707506</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796252</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392135</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D8" t="n">
-        <v>194.542240332463</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598633</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>187.59673958326</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>176.5646934686606</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4828,13 +4828,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4843,7 +4843,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
         <v>1698.509627919559</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4998,16 +4998,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.461687384549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311912</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032843</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909486</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580253</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235157</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258098</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602296</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396409</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359448</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614309</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614309</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362654</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5345,31 +5345,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7297566303649</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797182</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708873</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.395944601127</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5758,22 +5758,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207406</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6837,16 +6837,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7326,10 +7326,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,7 +7359,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1978.054428916699</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>72.44497470122226</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.2672314396028</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.45968844823184</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405083</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>164.3170701178263</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5874149221289997</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780817.9809007889</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780817.980900789</v>
+        <v>780817.9809007891</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780817.9809007891</v>
+        <v>780817.980900789</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520049</v>
@@ -26346,16 +26346,16 @@
         <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418675</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186745</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26453,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016116</v>
+        <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
         <v>455302.731225981</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.731225981</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="E6" t="n">
-        <v>204008.2128245186</v>
+        <v>204320.8541534395</v>
       </c>
       <c r="F6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="G6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607946</v>
       </c>
       <c r="H6" t="n">
-        <v>529420.674631873</v>
+        <v>529733.3159607947</v>
       </c>
       <c r="I6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607946</v>
       </c>
       <c r="J6" t="n">
-        <v>311889.4722345958</v>
+        <v>312202.1135635173</v>
       </c>
       <c r="K6" t="n">
-        <v>529420.6746318735</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="L6" t="n">
-        <v>529420.6746318735</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="M6" t="n">
-        <v>444365.6466963617</v>
+        <v>444678.2880252826</v>
       </c>
       <c r="N6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607948</v>
       </c>
       <c r="O6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607947</v>
       </c>
       <c r="P6" t="n">
-        <v>529420.6746318734</v>
+        <v>529733.3159607946</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973554</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>269.8885794174332</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2234520337455</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>68.70276273590902</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>118.6391596981277</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>52.2085479338661</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>275.7218124670728</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>145.6502472376</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061499</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>227.2326428941341</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>117.3910054872779</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-6.787104211980477e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-6.036702779561451e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31621,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226608</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192568</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192568</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -33438,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483018</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899005</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359236</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359236</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
